--- a/ExcelModelo/ExcelModelo.xlsx
+++ b/ExcelModelo/ExcelModelo.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hogar\Desktop\11 - Herramientas\bot_busqueda\ExcelModelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4340CC7A-EBFF-4508-BE70-B9D73D3EDBE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50CED57-E565-48C0-BE95-003132995766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Papers" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -415,7 +415,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Papers!$B$22:$B$39</c:f>
+              <c:f>Resumen!$B$22:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -424,7 +424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Papers!$C$22:$C$39</c:f>
+              <c:f>Resumen!$C$22:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -574,7 +574,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Papers!$B$26:$B$44</c:f>
+              <c:f>Resumen!$B$26:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -583,7 +583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Papers!$C$26:$C$44</c:f>
+              <c:f>Resumen!$C$26:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -987,7 +987,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
